--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H2">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I2">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J2">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N2">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O2">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P2">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q2">
-        <v>2086.994444150883</v>
+        <v>135.00078553553</v>
       </c>
       <c r="R2">
-        <v>18782.94999735795</v>
+        <v>1215.00706981977</v>
       </c>
       <c r="S2">
-        <v>0.2369036508081818</v>
+        <v>0.04175731235202055</v>
       </c>
       <c r="T2">
-        <v>0.2369036508081818</v>
+        <v>0.04175731235202054</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H3">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I3">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J3">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q3">
-        <v>3543.000050188401</v>
+        <v>1286.167796088809</v>
       </c>
       <c r="R3">
-        <v>31887.00045169561</v>
+        <v>11575.51016479928</v>
       </c>
       <c r="S3">
-        <v>0.4021810642839072</v>
+        <v>0.3978266510475637</v>
       </c>
       <c r="T3">
-        <v>0.4021810642839073</v>
+        <v>0.3978266510475635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H4">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I4">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J4">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q4">
-        <v>1524.018064473643</v>
+        <v>553.24384064837</v>
       </c>
       <c r="R4">
-        <v>13716.16258026279</v>
+        <v>4979.19456583533</v>
       </c>
       <c r="S4">
-        <v>0.1729977980455623</v>
+        <v>0.171124751379357</v>
       </c>
       <c r="T4">
-        <v>0.1729977980455624</v>
+        <v>0.171124751379357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I5">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J5">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N5">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O5">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P5">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q5">
-        <v>359.7147089072037</v>
+        <v>64.09833175603111</v>
       </c>
       <c r="R5">
-        <v>3237.432380164833</v>
+        <v>576.8849858042801</v>
       </c>
       <c r="S5">
-        <v>0.04083275258750903</v>
+        <v>0.01982635915607764</v>
       </c>
       <c r="T5">
-        <v>0.04083275258750903</v>
+        <v>0.01982635915607764</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I6">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J6">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q6">
         <v>610.6720769111872</v>
@@ -818,10 +818,10 @@
         <v>5496.048692200685</v>
       </c>
       <c r="S6">
-        <v>0.06931999501595981</v>
+        <v>0.1888879724594371</v>
       </c>
       <c r="T6">
-        <v>0.06931999501595983</v>
+        <v>0.188887972459437</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I7">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J7">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q7">
         <v>262.6800066324578</v>
@@ -880,10 +880,10 @@
         <v>2364.12005969212</v>
       </c>
       <c r="S7">
-        <v>0.0298179291947591</v>
+        <v>0.08124997970989999</v>
       </c>
       <c r="T7">
-        <v>0.02981792919475911</v>
+        <v>0.08124997970989996</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>17.519964</v>
       </c>
       <c r="I8">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J8">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N8">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O8">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P8">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q8">
-        <v>123.2199001945707</v>
+        <v>21.95681701649334</v>
       </c>
       <c r="R8">
-        <v>1108.979101751136</v>
+        <v>197.61135314844</v>
       </c>
       <c r="S8">
-        <v>0.01398721701925295</v>
+        <v>0.006791498751483711</v>
       </c>
       <c r="T8">
-        <v>0.01398721701925295</v>
+        <v>0.006791498751483709</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>17.519964</v>
       </c>
       <c r="I9">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J9">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q9">
         <v>209.1850861400814</v>
@@ -1004,10 +1004,10 @@
         <v>1882.665775260732</v>
       </c>
       <c r="S9">
-        <v>0.02374549234670913</v>
+        <v>0.06470337892246407</v>
       </c>
       <c r="T9">
-        <v>0.02374549234670913</v>
+        <v>0.06470337892246404</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>17.519964</v>
       </c>
       <c r="I10">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J10">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q10">
         <v>89.98076364097335</v>
@@ -1066,10 +1066,10 @@
         <v>809.82687276876</v>
       </c>
       <c r="S10">
-        <v>0.01021410069815862</v>
+        <v>0.02783209622169631</v>
       </c>
       <c r="T10">
-        <v>0.01021410069815862</v>
+        <v>0.0278320962216963</v>
       </c>
     </row>
   </sheetData>
